--- a/project/uploads/93/split_output/13平衡块、到底块、螺销钉.xlsx
+++ b/project/uploads/93/split_output/13平衡块、到底块、螺销钉.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\codespace\web-program\project\uploads\93\split_output\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\codespace\temp\webprogram\project\uploads\93\split_output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AB8D8A2F-8535-4527-B0DE-4BCC8351A8E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1FD7C0E1-D545-4A05-91AA-FFE32B0223A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{C034D1B1-5C37-44CC-9829-F46B31707655}"/>
+    <workbookView xWindow="760" yWindow="760" windowWidth="14400" windowHeight="8170" xr2:uid="{7B333A8B-F177-492E-A6CB-B3CD1BC1C1C1}"/>
   </bookViews>
   <sheets>
     <sheet name="13平衡块、到底块、螺销钉" sheetId="1" r:id="rId1"/>
@@ -2166,7 +2166,7 @@
         <xdr:cNvPr id="2" name="CheckBox12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2C27DA9-C647-44F2-966C-C6B934822D1D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{270D62AC-E742-4950-802A-F8FC43A0FB81}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2189,7 +2189,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4770755" y="4237355"/>
+          <a:off x="4769485" y="4324985"/>
           <a:ext cx="152400" cy="180975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2231,7 +2231,7 @@
         <xdr:cNvPr id="3" name="CheckBox13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0CC0CBAF-BA61-4D70-9183-26DE9A4C208C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4471BFD-0BB5-46C0-8213-0FAE2E05D1ED}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2254,8 +2254,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1506855" y="6603365"/>
-          <a:ext cx="152400" cy="179070"/>
+          <a:off x="1505585" y="6701155"/>
+          <a:ext cx="152400" cy="184150"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2296,7 +2296,7 @@
         <xdr:cNvPr id="4" name="CheckBox14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A82B763-22AF-4C9A-96BC-8FA5EA368BB5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F20127C9-A6D3-454B-97D8-EDB3660E2F46}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2319,8 +2319,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4530090" y="6595745"/>
-          <a:ext cx="152400" cy="178435"/>
+          <a:off x="4528820" y="6693535"/>
+          <a:ext cx="152400" cy="183515"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2361,7 +2361,7 @@
         <xdr:cNvPr id="5" name="CheckBox17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E56C9CA3-C224-425F-8EDC-4CF8AD51CD1B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28ADE87D-6647-458C-B99B-F38D960B7A76}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2384,7 +2384,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5215255" y="15308580"/>
+          <a:off x="5213985" y="15610840"/>
           <a:ext cx="152400" cy="178776"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2413,13 +2413,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>259080</xdr:colOff>
+          <xdr:colOff>260350</xdr:colOff>
           <xdr:row>6</xdr:row>
-          <xdr:rowOff>7620</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>411480</xdr:colOff>
+          <xdr:colOff>412750</xdr:colOff>
           <xdr:row>6</xdr:row>
           <xdr:rowOff>190500</xdr:rowOff>
         </xdr:to>
@@ -2431,7 +2431,7 @@
                   <a14:compatExt spid="_x0000_s1025"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B822BDF6-DA03-4C17-BD0D-011C28DC19C7}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0183A0E-D279-454C-9883-E99CFB8CA6CB}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2484,7 +2484,7 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>3619500</xdr:colOff>
           <xdr:row>6</xdr:row>
-          <xdr:rowOff>182880</xdr:rowOff>
+          <xdr:rowOff>184150</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2494,7 +2494,7 @@
                   <a14:compatExt spid="_x0000_s1026"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87356418-AA14-4CA1-A936-EB31B0E8BD9C}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD5E6989-BA1D-4C1C-96EB-F88A16F371CD}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2539,13 +2539,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>3398520</xdr:colOff>
+          <xdr:colOff>3403600</xdr:colOff>
           <xdr:row>14</xdr:row>
-          <xdr:rowOff>7620</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>3550920</xdr:colOff>
+          <xdr:colOff>3556000</xdr:colOff>
           <xdr:row>14</xdr:row>
           <xdr:rowOff>190500</xdr:rowOff>
         </xdr:to>
@@ -2557,7 +2557,7 @@
                   <a14:compatExt spid="_x0000_s1027"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A08F53E7-897B-4A4A-B571-4F386415CCF2}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1945C475-A6AB-47AC-8C5C-B7EEA4BF6917}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2604,7 +2604,7 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>266700</xdr:colOff>
           <xdr:row>14</xdr:row>
-          <xdr:rowOff>22860</xdr:rowOff>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
@@ -2620,7 +2620,7 @@
                   <a14:compatExt spid="_x0000_s1028"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E7F08B5-8F8E-455C-8868-9324DF935E3A}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01153BF5-72CD-4599-A51F-B4D2A6D15CCF}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2678,7 +2678,7 @@
         <xdr:cNvPr id="6" name="Picture 8" descr="rId7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD887C25-4254-4F2A-9AE9-107F1EA7C1AB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB7A590F-23F0-4C17-95F8-157921E0F439}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2694,8 +2694,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2184400" y="8317865"/>
-          <a:ext cx="3279775" cy="1360170"/>
+          <a:off x="2183130" y="8437245"/>
+          <a:ext cx="3279775" cy="1395730"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2726,7 +2726,7 @@
         <xdr:cNvPr id="7" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D6AB67A-C814-4C9D-86C6-0CBD6CA03648}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5012B83-DD38-4169-8ACA-5F2D583901EE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2742,8 +2742,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1561465" y="12854940"/>
-          <a:ext cx="5180330" cy="1656715"/>
+          <a:off x="1560195" y="13091160"/>
+          <a:ext cx="5180330" cy="1702435"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2774,7 +2774,7 @@
         <xdr:cNvPr id="8" name="图片 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A0AC3DB-CA3E-4602-9222-03056AEEA1F2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0CC22013-2993-4D1E-8C2F-A4728A36AB8E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2790,8 +2790,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1861820" y="15626080"/>
-          <a:ext cx="4695825" cy="1450340"/>
+          <a:off x="1860550" y="15933420"/>
+          <a:ext cx="4695825" cy="1490980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2813,7 +2813,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>86332</xdr:colOff>
+      <xdr:colOff>102897</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>29210</xdr:rowOff>
     </xdr:to>
@@ -2822,7 +2822,7 @@
         <xdr:cNvPr id="9" name="图片 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3884DB23-274F-47F7-BCDF-621DDD3D35F9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7706EB0-45B9-4EB4-B4CB-CBEBB1753A3E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2838,8 +2838,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7825105" y="160655"/>
-          <a:ext cx="2228850" cy="2878455"/>
+          <a:off x="7822565" y="160655"/>
+          <a:ext cx="2228850" cy="2935605"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8450,7 +8450,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B9D8110-11D1-4FD4-B0A2-FB2767C25434}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48F3B91F-4048-4491-87EF-058F17D5FE1C}">
   <sheetPr codeName="Sheet3">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
@@ -8460,13 +8460,13 @@
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.59765625" customWidth="1"/>
-    <col min="2" max="2" width="84.59765625" style="35" customWidth="1"/>
+    <col min="1" max="1" width="16.58203125" customWidth="1"/>
+    <col min="2" max="2" width="84.58203125" style="35" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8477,7 +8477,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -8486,46 +8486,46 @@
       </c>
       <c r="D2" s="2"/>
     </row>
-    <row r="3" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="B3" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
       <c r="B4" s="4"/>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
       <c r="B5" s="6" t="s">
         <v>6</v>
       </c>
       <c r="D5" s="2"/>
     </row>
-    <row r="6" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
       <c r="B6" s="6"/>
       <c r="D6" s="2"/>
     </row>
-    <row r="7" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
       <c r="B7" s="4"/>
       <c r="D7" s="2"/>
     </row>
-    <row r="8" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="4"/>
       <c r="D8" s="2"/>
     </row>
-    <row r="9" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
       <c r="B9" s="4"/>
       <c r="D9" s="2"/>
     </row>
-    <row r="10" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>7</v>
       </c>
@@ -8534,7 +8534,7 @@
       </c>
       <c r="D10" s="2"/>
     </row>
-    <row r="11" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9"/>
       <c r="B11" s="10" t="s">
         <v>9</v>
@@ -8548,7 +8548,7 @@
       </c>
       <c r="D12" s="2"/>
     </row>
-    <row r="13" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="9"/>
       <c r="B13" s="10"/>
       <c r="D13" s="2"/>
@@ -8560,28 +8560,28 @@
       </c>
       <c r="D14" s="2"/>
     </row>
-    <row r="15" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9"/>
       <c r="B15" s="6"/>
       <c r="D15" s="2"/>
     </row>
-    <row r="16" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="11"/>
       <c r="B16" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D16" s="2"/>
     </row>
-    <row r="17" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="12"/>
       <c r="B17" s="4"/>
       <c r="D17" s="2"/>
     </row>
-    <row r="18" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="13"/>
       <c r="B18" s="14"/>
     </row>
-    <row r="19" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
         <v>13</v>
       </c>
@@ -8589,11 +8589,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="9"/>
       <c r="B20" s="4"/>
     </row>
-    <row r="21" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="9"/>
       <c r="B21" s="4" t="s">
         <v>15</v>
@@ -8631,37 +8631,37 @@
       <c r="A28" s="9"/>
       <c r="B28" s="19"/>
     </row>
-    <row r="29" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="9"/>
       <c r="B29" s="4"/>
     </row>
-    <row r="30" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="9"/>
       <c r="B30" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="9"/>
       <c r="B31" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="9"/>
       <c r="B32" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="9"/>
       <c r="B33" s="20"/>
     </row>
-    <row r="34" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="21"/>
       <c r="B34" s="22"/>
     </row>
-    <row r="35" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="13"/>
       <c r="B35" s="14"/>
     </row>
@@ -8685,48 +8685,48 @@
         <v>24</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="5"/>
       <c r="B39" s="25"/>
     </row>
-    <row r="40" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="5"/>
       <c r="B40" s="26"/>
     </row>
-    <row r="41" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="5"/>
       <c r="B41" s="26"/>
     </row>
-    <row r="42" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="5"/>
       <c r="B42" s="26"/>
     </row>
-    <row r="43" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="5"/>
       <c r="B43" s="26"/>
     </row>
-    <row r="44" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="5"/>
       <c r="B44" s="26"/>
     </row>
-    <row r="45" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="5"/>
       <c r="B45" s="26"/>
     </row>
-    <row r="46" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="5"/>
       <c r="B46" s="26"/>
       <c r="D46" s="2"/>
     </row>
-    <row r="47" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="7"/>
       <c r="B47" s="27"/>
     </row>
-    <row r="48" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="13"/>
       <c r="B48" s="14"/>
     </row>
-    <row r="49" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="8" t="s">
         <v>25</v>
       </c>
@@ -8734,125 +8734,125 @@
         <v>26</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="9"/>
       <c r="B50" s="29" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="9"/>
       <c r="B51" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="9"/>
       <c r="B52" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="9"/>
       <c r="B53" s="23"/>
     </row>
-    <row r="54" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="9"/>
       <c r="B54" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="9"/>
       <c r="B55" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="9"/>
       <c r="B56" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="9"/>
       <c r="B57" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="9"/>
       <c r="B58" s="30" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="9"/>
       <c r="B59" s="31" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="9"/>
       <c r="B60" s="23" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="9"/>
       <c r="B61" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="9"/>
       <c r="B62" s="18"/>
     </row>
-    <row r="63" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="9"/>
       <c r="B63" s="18"/>
     </row>
-    <row r="64" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="9"/>
       <c r="B64" s="18"/>
     </row>
-    <row r="65" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="9"/>
       <c r="B65" s="18"/>
     </row>
-    <row r="66" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="9"/>
       <c r="B66" s="18"/>
     </row>
-    <row r="67" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="9"/>
       <c r="B67" s="18"/>
     </row>
-    <row r="68" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="9"/>
       <c r="B68" s="18"/>
     </row>
-    <row r="69" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="9"/>
       <c r="B69" s="18"/>
     </row>
-    <row r="70" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="9"/>
       <c r="B70" s="18"/>
     </row>
-    <row r="71" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="9"/>
       <c r="B71" s="18"/>
     </row>
-    <row r="72" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="9"/>
       <c r="B72" s="32"/>
     </row>
-    <row r="73" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="13"/>
       <c r="B73" s="14"/>
     </row>
-    <row r="74" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
         <v>38</v>
       </c>
@@ -8860,69 +8860,69 @@
         <v>39</v>
       </c>
     </row>
-    <row r="75" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="5"/>
       <c r="B75" s="33" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="76" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="5"/>
       <c r="B76" s="34"/>
     </row>
-    <row r="77" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="5"/>
       <c r="B77" s="34"/>
     </row>
-    <row r="78" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="5"/>
       <c r="B78" s="34"/>
     </row>
-    <row r="79" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="5"/>
       <c r="B79" s="34"/>
     </row>
-    <row r="80" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="5"/>
       <c r="B80" s="34"/>
     </row>
-    <row r="81" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="5"/>
       <c r="B81" s="34"/>
     </row>
-    <row r="82" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="5"/>
       <c r="B82" s="34"/>
     </row>
-    <row r="83" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="5"/>
       <c r="B83" s="34"/>
     </row>
-    <row r="84" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="7"/>
       <c r="B84" s="34"/>
     </row>
-    <row r="85" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="86" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="87" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="88" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="89" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="90" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="91" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="92" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="93" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="94" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="95" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="96" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="97" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="98" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="99" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="100" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="101" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="102" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="103" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="104" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="105" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="85" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="86" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="87" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="88" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="89" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="90" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="91" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="92" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="93" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="94" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="95" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="96" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="97" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="98" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="99" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="100" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="101" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="102" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="103" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="104" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="105" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="10">
     <mergeCell ref="A49:A72"/>
@@ -8938,7 +8938,7 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D1" location="目录!A1" display="返回" xr:uid="{9E9AA3DD-51DC-4F84-A0A3-408C7D749F37}"/>
+    <hyperlink ref="D1" location="目录!A1" display="返回" xr:uid="{C9078309-ADD9-4505-A166-93F7B7D356E4}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="45" orientation="portrait" r:id="rId1"/>
@@ -8955,7 +8955,7 @@
                 <xdr:col>1</xdr:col>
                 <xdr:colOff>266700</xdr:colOff>
                 <xdr:row>14</xdr:row>
-                <xdr:rowOff>22860</xdr:rowOff>
+                <xdr:rowOff>19050</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>1</xdr:col>
@@ -8978,13 +8978,13 @@
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>3398520</xdr:colOff>
+                <xdr:colOff>3403600</xdr:colOff>
                 <xdr:row>14</xdr:row>
-                <xdr:rowOff>7620</xdr:rowOff>
+                <xdr:rowOff>12700</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>3550920</xdr:colOff>
+                <xdr:colOff>3556000</xdr:colOff>
                 <xdr:row>14</xdr:row>
                 <xdr:rowOff>190500</xdr:rowOff>
               </to>
@@ -8999,7 +8999,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1026" r:id="rId8" name="CheckBox4">
-          <controlPr defaultSize="0" altText="" r:id="rId7">
+          <controlPr defaultSize="0" altText="" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
@@ -9011,7 +9011,7 @@
                 <xdr:col>1</xdr:col>
                 <xdr:colOff>3619500</xdr:colOff>
                 <xdr:row>6</xdr:row>
-                <xdr:rowOff>182880</xdr:rowOff>
+                <xdr:rowOff>184150</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -9028,13 +9028,13 @@
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>259080</xdr:colOff>
+                <xdr:colOff>260350</xdr:colOff>
                 <xdr:row>6</xdr:row>
-                <xdr:rowOff>7620</xdr:rowOff>
+                <xdr:rowOff>12700</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>411480</xdr:colOff>
+                <xdr:colOff>412750</xdr:colOff>
                 <xdr:row>6</xdr:row>
                 <xdr:rowOff>190500</xdr:rowOff>
               </to>
